--- a/文档/后勤工程管理系统2022.3.7.xlsx
+++ b/文档/后勤工程管理系统2022.3.7.xlsx
@@ -9854,1367 +9854,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="5.375" style="52" customWidth="1"/>
-    <col min="2" max="3" width="15.875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="52" customWidth="1"/>
-    <col min="5" max="7" width="15.875" style="52" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="52"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="29.1" customHeight="1" spans="1:7">
-      <c r="A1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="2:7">
-      <c r="B2" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:7">
-      <c r="A3" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" ht="27" customHeight="1" spans="1:7">
-      <c r="A4" s="57">
-        <v>1</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:7">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:7">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="27" customHeight="1" spans="1:7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="54"/>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="54"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="58" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="58" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="58" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="58"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D13:D15"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AO7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="49.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.875" style="1" customWidth="1"/>
-    <col min="25" max="27" width="11.25" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="11.125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="9.375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.25" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.125" style="1" customWidth="1"/>
-    <col min="35" max="36" width="10.25" style="1" customWidth="1"/>
-    <col min="37" max="37" width="4.625" style="1" customWidth="1"/>
-    <col min="38" max="39" width="9.375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="9.125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.5" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="11.5" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:41">
-      <c r="A1" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-    </row>
-    <row r="2" s="49" customFormat="1" customHeight="1" spans="1:41">
-      <c r="A2" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" s="49" customFormat="1" ht="30" spans="1:41">
-      <c r="A3" s="51"/>
-      <c r="B3" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W3" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL3" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN3" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO3" s="51"/>
-    </row>
-    <row r="4" ht="132" spans="1:41">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="43">
-        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,3,0)</f>
-        <v>1999</v>
-      </c>
-      <c r="E4" s="43" t="str">
-        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,4,0)</f>
-        <v>4层</v>
-      </c>
-      <c r="F4" s="43" t="str">
-        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,5,0)</f>
-        <v>钢混</v>
-      </c>
-      <c r="G4" s="44">
-        <v>12714</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="45">
-        <v>2851939.91</v>
-      </c>
-      <c r="J4" s="47">
-        <v>270100000039</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="16">
-        <v>2021</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>2860000</v>
-      </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="38">
-        <v>44425</v>
-      </c>
-      <c r="V4" s="38">
-        <v>44512</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="14">
-        <v>2554421.79</v>
-      </c>
-      <c r="AC4" s="15">
-        <v>2539124.26</v>
-      </c>
-      <c r="AD4" s="15">
-        <v>2539124.26</v>
-      </c>
-      <c r="AE4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AG4" s="6">
-        <v>900077</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="6">
-        <v>900077</v>
-      </c>
-      <c r="AJ4" s="6">
-        <v>100000</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN4" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO4" s="7"/>
-    </row>
-    <row r="5" ht="102.95" customHeight="1" spans="1:41">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="24">
-        <v>5708572232</v>
-      </c>
-      <c r="D5" s="43">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="43">
-        <v>2</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="44">
-        <v>525</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="45">
-        <v>2260771.38</v>
-      </c>
-      <c r="J5" s="47">
-        <v>270100001038</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>2530000</v>
-      </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="39">
-        <v>44024</v>
-      </c>
-      <c r="V5" s="38">
-        <v>44389</v>
-      </c>
-      <c r="W5" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="X5" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="14">
-        <v>1762000</v>
-      </c>
-      <c r="AC5" s="17">
-        <v>29298800</v>
-      </c>
-      <c r="AD5" s="16">
-        <v>2486407.98</v>
-      </c>
-      <c r="AE5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL5" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM5" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN5" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO5" s="7"/>
-    </row>
-    <row r="6" ht="72" customHeight="1" spans="1:41">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="43" t="str">
-        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,3,0)</f>
-        <v>1987年</v>
-      </c>
-      <c r="E6" s="43" t="str">
-        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,4,0)</f>
-        <v>5层</v>
-      </c>
-      <c r="F6" s="43" t="str">
-        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,5,0)</f>
-        <v>砖混</v>
-      </c>
-      <c r="G6" s="44">
-        <v>2394</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="46">
-        <v>1778063.12</v>
-      </c>
-      <c r="J6" s="47">
-        <v>270100000592</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="16">
-        <v>2021</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>2930000</v>
-      </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="38">
-        <v>44427</v>
-      </c>
-      <c r="V6" s="38">
-        <v>44452</v>
-      </c>
-      <c r="W6" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="X6" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="18">
-        <v>2824457.75</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>2735552.05</v>
-      </c>
-      <c r="AD6" s="15">
-        <v>2735552.05</v>
-      </c>
-      <c r="AE6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="19">
-        <v>45182</v>
-      </c>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AL6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN6" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO6" s="7"/>
-    </row>
-    <row r="7" ht="54" customHeight="1" spans="1:41">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="43">
-        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,3,0)</f>
-        <v>1994</v>
-      </c>
-      <c r="E7" s="43" t="str">
-        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,4,0)</f>
-        <v>5层</v>
-      </c>
-      <c r="F7" s="43" t="str">
-        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,5,0)</f>
-        <v>砖混</v>
-      </c>
-      <c r="G7" s="44">
-        <v>3399</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="46">
-        <v>3583940.53</v>
-      </c>
-      <c r="J7" s="47">
-        <v>270100000224</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="16">
-        <v>2021</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>380000</v>
-      </c>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="38">
-        <v>44287</v>
-      </c>
-      <c r="V7" s="38">
-        <v>44316</v>
-      </c>
-      <c r="W7" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="X7" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y7" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="20">
-        <v>380000</v>
-      </c>
-      <c r="AC7" s="15">
-        <v>363523.63</v>
-      </c>
-      <c r="AD7" s="15">
-        <v>363523.63</v>
-      </c>
-      <c r="AE7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="19">
-        <v>45046</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>200756</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>200756</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>50000</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL7" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM7" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN7" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AO7" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:AO1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="AG2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="AO2:AO3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="31" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL4:AN4 AL5:AN5 AL6:AN6 AL7:AN7">
-      <formula1>"完成,未完成"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6:H7">
-      <formula1>"办公用房,营业厅,乡镇供电所"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
-      <formula1>"小型基建,国网大修,国网技改,房屋修缮（省大修）,日常零星维修,维保"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6:O7">
-      <formula1>$O$4:$O$7</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" spans="1:11">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-    </row>
-    <row r="2" ht="18.75" spans="1:11">
-      <c r="A2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" ht="30" spans="1:11">
-      <c r="A3" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:11">
-      <c r="A4" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="43">
-        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,3,0)</f>
-        <v>1999</v>
-      </c>
-      <c r="D4" s="43" t="str">
-        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,4,0)</f>
-        <v>4层</v>
-      </c>
-      <c r="E4" s="43" t="str">
-        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,5,0)</f>
-        <v>钢混</v>
-      </c>
-      <c r="F4" s="44">
-        <v>12714</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="45">
-        <v>2851939.91</v>
-      </c>
-      <c r="I4" s="47">
-        <v>270100000039</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="1:11">
-      <c r="A5" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="24">
-        <v>5708572232</v>
-      </c>
-      <c r="C5" s="43">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="43">
-        <v>2</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="44">
-        <v>525</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="45">
-        <v>2260771.38</v>
-      </c>
-      <c r="I5" s="47">
-        <v>270100001038</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:11">
-      <c r="A6" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="43" t="str">
-        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,3,0)</f>
-        <v>1987年</v>
-      </c>
-      <c r="D6" s="43" t="str">
-        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,4,0)</f>
-        <v>5层</v>
-      </c>
-      <c r="E6" s="43" t="str">
-        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,5,0)</f>
-        <v>砖混</v>
-      </c>
-      <c r="F6" s="44">
-        <v>2394</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="46">
-        <v>1778063.12</v>
-      </c>
-      <c r="I6" s="47">
-        <v>270100000592</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:11">
-      <c r="A7" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="43">
-        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,3,0)</f>
-        <v>1994</v>
-      </c>
-      <c r="D7" s="43" t="str">
-        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,4,0)</f>
-        <v>5层</v>
-      </c>
-      <c r="E7" s="43" t="str">
-        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,5,0)</f>
-        <v>砖混</v>
-      </c>
-      <c r="F7" s="44">
-        <v>3399</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="46">
-        <v>3583940.53</v>
-      </c>
-      <c r="I7" s="47">
-        <v>270100000224</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:K2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="31" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="9" stopIfTrue="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7">
-      <formula1>"办公用房,营业厅,乡镇供电所"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>

--- a/文档/后勤工程管理系统2022.3.7.xlsx
+++ b/文档/后勤工程管理系统2022.3.7.xlsx
@@ -9854,6 +9854,1367 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.375" style="52" customWidth="1"/>
+    <col min="2" max="3" width="15.875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="52" customWidth="1"/>
+    <col min="5" max="7" width="15.875" style="52" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29.1" customHeight="1" spans="1:7">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="2:7">
+      <c r="B2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:7">
+      <c r="A3" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:7">
+      <c r="A4" s="57">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:7">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:7">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:7">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:7">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="58" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="58"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D13:D15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AO7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="49.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.875" style="1" customWidth="1"/>
+    <col min="25" max="27" width="11.25" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11.625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="9.375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.25" style="1" customWidth="1"/>
+    <col min="34" max="34" width="9.125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="10.25" style="1" customWidth="1"/>
+    <col min="37" max="37" width="4.625" style="1" customWidth="1"/>
+    <col min="38" max="39" width="9.375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="9.125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="11.5" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:41">
+      <c r="A1" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+    </row>
+    <row r="2" s="49" customFormat="1" customHeight="1" spans="1:41">
+      <c r="A2" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" s="49" customFormat="1" ht="30" spans="1:41">
+      <c r="A3" s="51"/>
+      <c r="B3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO3" s="51"/>
+    </row>
+    <row r="4" ht="132" spans="1:41">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="43">
+        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,3,0)</f>
+        <v>1999</v>
+      </c>
+      <c r="E4" s="43" t="str">
+        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,4,0)</f>
+        <v>4层</v>
+      </c>
+      <c r="F4" s="43" t="str">
+        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,5,0)</f>
+        <v>钢混</v>
+      </c>
+      <c r="G4" s="44">
+        <v>12714</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="45">
+        <v>2851939.91</v>
+      </c>
+      <c r="J4" s="47">
+        <v>270100000039</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="16">
+        <v>2021</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>2860000</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="38">
+        <v>44425</v>
+      </c>
+      <c r="V4" s="38">
+        <v>44512</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="14">
+        <v>2554421.79</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>2539124.26</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>2539124.26</v>
+      </c>
+      <c r="AE4" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>900077</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>900077</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO4" s="7"/>
+    </row>
+    <row r="5" ht="102.95" customHeight="1" spans="1:41">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="24">
+        <v>5708572232</v>
+      </c>
+      <c r="D5" s="43">
+        <v>2018</v>
+      </c>
+      <c r="E5" s="43">
+        <v>2</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="44">
+        <v>525</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="45">
+        <v>2260771.38</v>
+      </c>
+      <c r="J5" s="47">
+        <v>270100001038</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>2530000</v>
+      </c>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="39">
+        <v>44024</v>
+      </c>
+      <c r="V5" s="38">
+        <v>44389</v>
+      </c>
+      <c r="W5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="14">
+        <v>1762000</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>29298800</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>2486407.98</v>
+      </c>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO5" s="7"/>
+    </row>
+    <row r="6" ht="72" customHeight="1" spans="1:41">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="43" t="str">
+        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,3,0)</f>
+        <v>1987年</v>
+      </c>
+      <c r="E6" s="43" t="str">
+        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,4,0)</f>
+        <v>5层</v>
+      </c>
+      <c r="F6" s="43" t="str">
+        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,5,0)</f>
+        <v>砖混</v>
+      </c>
+      <c r="G6" s="44">
+        <v>2394</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="46">
+        <v>1778063.12</v>
+      </c>
+      <c r="J6" s="47">
+        <v>270100000592</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="16">
+        <v>2021</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>2930000</v>
+      </c>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="38">
+        <v>44427</v>
+      </c>
+      <c r="V6" s="38">
+        <v>44452</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="X6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="18">
+        <v>2824457.75</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>2735552.05</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>2735552.05</v>
+      </c>
+      <c r="AE6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="19">
+        <v>45182</v>
+      </c>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO6" s="7"/>
+    </row>
+    <row r="7" ht="54" customHeight="1" spans="1:41">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="43">
+        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,3,0)</f>
+        <v>1994</v>
+      </c>
+      <c r="E7" s="43" t="str">
+        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,4,0)</f>
+        <v>5层</v>
+      </c>
+      <c r="F7" s="43" t="str">
+        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,5,0)</f>
+        <v>砖混</v>
+      </c>
+      <c r="G7" s="44">
+        <v>3399</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="46">
+        <v>3583940.53</v>
+      </c>
+      <c r="J7" s="47">
+        <v>270100000224</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="16">
+        <v>2021</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>380000</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="38">
+        <v>44287</v>
+      </c>
+      <c r="V7" s="38">
+        <v>44316</v>
+      </c>
+      <c r="W7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y7" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="20">
+        <v>380000</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>363523.63</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>363523.63</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="19">
+        <v>45046</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>200756</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>200756</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>50000</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:AO1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="AL2:AN2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="AO2:AO3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="31" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL4:AN4 AL5:AN5 AL6:AN6 AL7:AN7">
+      <formula1>"完成,未完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6:H7">
+      <formula1>"办公用房,营业厅,乡镇供电所"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
+      <formula1>"小型基建,国网大修,国网技改,房屋修缮（省大修）,日常零星维修,维保"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5 O6:O7">
+      <formula1>$O$4:$O$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" spans="1:11">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:11">
+      <c r="A2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+    </row>
+    <row r="3" ht="30" spans="1:11">
+      <c r="A3" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:11">
+      <c r="A4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="43">
+        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,3,0)</f>
+        <v>1999</v>
+      </c>
+      <c r="D4" s="43" t="str">
+        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,4,0)</f>
+        <v>4层</v>
+      </c>
+      <c r="E4" s="43" t="str">
+        <f ca="1">VLOOKUP($E4,'[1]问题（对不上）'!$C:$H,5,0)</f>
+        <v>钢混</v>
+      </c>
+      <c r="F4" s="44">
+        <v>12714</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="45">
+        <v>2851939.91</v>
+      </c>
+      <c r="I4" s="47">
+        <v>270100000039</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="1:11">
+      <c r="A5" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="24">
+        <v>5708572232</v>
+      </c>
+      <c r="C5" s="43">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="43">
+        <v>2</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="44">
+        <v>525</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="45">
+        <v>2260771.38</v>
+      </c>
+      <c r="I5" s="47">
+        <v>270100001038</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:11">
+      <c r="A6" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="43" t="str">
+        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,3,0)</f>
+        <v>1987年</v>
+      </c>
+      <c r="D6" s="43" t="str">
+        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,4,0)</f>
+        <v>5层</v>
+      </c>
+      <c r="E6" s="43" t="str">
+        <f ca="1">VLOOKUP($D6,'[1]问题（对不上）'!$C:$H,5,0)</f>
+        <v>砖混</v>
+      </c>
+      <c r="F6" s="44">
+        <v>2394</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="46">
+        <v>1778063.12</v>
+      </c>
+      <c r="I6" s="47">
+        <v>270100000592</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:11">
+      <c r="A7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="43">
+        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,3,0)</f>
+        <v>1994</v>
+      </c>
+      <c r="D7" s="43" t="str">
+        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,4,0)</f>
+        <v>5层</v>
+      </c>
+      <c r="E7" s="43" t="str">
+        <f ca="1">VLOOKUP($D7,'[1]问题（对不上）'!$C:$H,5,0)</f>
+        <v>砖混</v>
+      </c>
+      <c r="F7" s="44">
+        <v>3399</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="46">
+        <v>3583940.53</v>
+      </c>
+      <c r="I7" s="47">
+        <v>270100000224</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="31" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7">
+      <formula1>"办公用房,营业厅,乡镇供电所"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
